--- a/_site/Data/EconomicStabilityCC.xlsx
+++ b/_site/Data/EconomicStabilityCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA9CC10-260D-CE4B-80ED-AE0F8D1C2083}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE14ED03-0F68-DD4E-AB81-BD63448A08B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18360" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -76,12 +76,21 @@
   <si>
     <t>11</t>
   </si>
+  <si>
+    <t xml:space="preserve">Rebecca Schapiro, Kim Blankenship, Alana Rosenberg &amp; Danya Keene (2021): The Effects of Rental Assistance on Housing Stability, Quality, Autonomy, and Affordability, Housing Policy Debate, DOI: 10.1080/10511482.2020.1846067 </t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/pdf/10.1080/10511482.2020.1846067</t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -99,6 +108,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ArialUnicodeMS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -114,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -150,11 +170,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -178,8 +253,28 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1341,10 +1436,10 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
@@ -1354,125 +1449,135 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="153" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="153" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="102" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="170" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="102" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="102" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="8"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="153" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="153" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="153" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="102" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="170" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="102" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
@@ -1480,6 +1585,9 @@
       <c r="E13" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{25855F9B-E952-7849-A487-3D8EAB205F0E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/_site/Data/EconomicStabilityCC.xlsx
+++ b/_site/Data/EconomicStabilityCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,11 +16,22 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -48,7 +59,52 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Rebecca Schapiro, Kim Blankenship, Alana Rosenberg &amp; Danya Keene (2021): The Effects of Rental Assistance on Housing Stability, Quality, Autonomy, and Affordability, Housing Policy Debate, DOI: 10.1080/10511482.2020.1846067 </t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/pdf/10.1080/10511482.2020.1846067</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>How do you feel about your current employment situation? Do you feel it is…</t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>Some families are experiencing a variety of are of instability in their everyday lives. Please rate the degree of instability you have for each of the following: My current housing situation is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Very stable
+• Stable
+• Just somewhat stable  
+• Very unstable  </t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Some families are experiencing a variety of are of instability in their everyday lives. Please rate the degree of instability you have for each of the following: My current employment situation is</t>
+  </si>
+  <si>
+    <t>My current work schedule is...</t>
+  </si>
+  <si>
+    <t>• Very predictable
+• Predictable
+• Just somewhat predictable
+• Very predictable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you use childcare for your own child(ren), how do you rate the stability of your current childcare situation? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Very stable
+• Just somewhat stable  
+• Very unstable  
+• I do not use childcare for my own child(ren)  </t>
   </si>
   <si>
     <t>How do you feel about your current work schedule? Do you feel it is…</t>
@@ -73,24 +129,12 @@
 • I do not use childcare for my own child(ren)  
 </t>
   </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebecca Schapiro, Kim Blankenship, Alana Rosenberg &amp; Danya Keene (2021): The Effects of Rental Assistance on Housing Stability, Quality, Autonomy, and Affordability, Housing Policy Debate, DOI: 10.1080/10511482.2020.1846067 </t>
-  </si>
-  <si>
-    <t>https://www.tandfonline.com/doi/pdf/10.1080/10511482.2020.1846067</t>
-  </si>
-  <si>
-    <t>Developed by RAPID Team</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -119,6 +163,12 @@
       <color theme="1"/>
       <name val="ArialUnicodeMS"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -134,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -224,12 +274,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,6 +331,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1433,23 +1501,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="24.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1474,115 +1542,167 @@
         <v>6</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="153" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="153" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="102" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="5" spans="1:5" ht="78.75">
+      <c r="A5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63">
+      <c r="A6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="78.75">
+      <c r="A7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="102" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" ht="170" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="9" spans="1:5" ht="170.1" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
+      <c r="D9" s="14"/>
+      <c r="E9" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="102" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="102" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="153" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="153" customHeight="1">
+    <row r="10" spans="1:5" ht="102" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="102" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="170" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+    <row r="12" spans="1:5" ht="153" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="102" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:5" ht="153" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="153" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="102" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="170.1" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="102" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/_site/Data/EconomicStabilityCC.xlsx
+++ b/_site/Data/EconomicStabilityCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>How do you feel about your current housing situation? Do you feel…</t>
@@ -65,7 +65,7 @@
     <t>https://www.tandfonline.com/doi/pdf/10.1080/10511482.2020.1846067</t>
   </si>
   <si>
-    <t>11</t>
+    <t>05/02/2021-05/13/2021</t>
   </si>
   <si>
     <t>How do you feel about your current employment situation? Do you feel it is…</t>
@@ -83,7 +83,7 @@
 • Very unstable  </t>
   </si>
   <si>
-    <t>34</t>
+    <t>10/13/2021-10/17/2021</t>
   </si>
   <si>
     <t>Some families are experiencing a variety of are of instability in their everyday lives. Please rate the degree of instability you have for each of the following: My current employment situation is</t>
@@ -105,6 +105,9 @@
 • Just somewhat stable  
 • Very unstable  
 • I do not use childcare for my own child(ren)  </t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>How do you feel about your current work schedule? Do you feel it is…</t>
@@ -1503,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1615,15 +1618,15 @@
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="102" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>11</v>
@@ -1635,10 +1638,10 @@
     </row>
     <row r="9" spans="1:5" ht="170.1" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>11</v>

--- a/_site/Data/EconomicStabilityCC.xlsx
+++ b/_site/Data/EconomicStabilityCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -105,9 +105,6 @@
 • Just somewhat stable  
 • Very unstable  
 • I do not use childcare for my own child(ren)  </t>
-  </si>
-  <si>
-    <t>34</t>
   </si>
   <si>
     <t>How do you feel about your current work schedule? Do you feel it is…</t>
@@ -327,9 +324,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -342,6 +336,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1506,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1537,7 +1534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" customHeight="1">
+    <row r="2" spans="1:5" ht="114.75">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1544,7 @@
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1561,10 +1558,10 @@
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1576,77 +1573,77 @@
       <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="78.75">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="63">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="78.75">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="102" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="170.1" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
